--- a/papers_processed/Paper9_data.xlsx
+++ b/papers_processed/Paper9_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\extracted data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pulpit\Master Project 3\papers_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2A1FE9-B3AF-44CD-9C6A-E51223EC74E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E770BBC6-4CD2-4C66-96CD-0BADA060FE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BDEB7EB8-4CAD-854D-9D52-9BB5939D53FB}"/>
   </bookViews>
@@ -30,15 +30,6 @@
     <t>doi</t>
   </si>
   <si>
-    <t>selection_type</t>
-  </si>
-  <si>
-    <t>selection_value</t>
-  </si>
-  <si>
-    <t>farming_practice_used</t>
-  </si>
-  <si>
     <t>farming_practice_compared</t>
   </si>
   <si>
@@ -109,6 +100,15 @@
   </si>
   <si>
     <t xml:space="preserve">&gt;1,200 </t>
+  </si>
+  <si>
+    <t>selection type</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>farming practice</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -534,63 +534,63 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3">
         <v>0.125</v>
@@ -599,39 +599,39 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3">
         <v>4.4999999999999998E-2</v>
@@ -640,39 +640,39 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3">
         <v>3.9E-2</v>
@@ -681,39 +681,39 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
         <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3">
         <v>-4.2999999999999997E-2</v>
@@ -722,16 +722,16 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
